--- a/IPPU/A1_Outputs/A-O_Parametrization_Natural_COMPLETED.xlsx
+++ b/IPPU/A1_Outputs/A-O_Parametrization_Natural_COMPLETED.xlsx
@@ -10635,79 +10635,79 @@
         <v>3.329</v>
       </c>
       <c r="J7">
-        <v>3.3449</v>
+        <v>3.3284</v>
       </c>
       <c r="K7">
-        <v>3.3599</v>
+        <v>3.3278</v>
       </c>
       <c r="L7">
-        <v>3.4826</v>
+        <v>3.434</v>
       </c>
       <c r="M7">
-        <v>3.6048</v>
+        <v>3.5399</v>
       </c>
       <c r="N7">
-        <v>3.4923</v>
+        <v>3.4114</v>
       </c>
       <c r="O7">
-        <v>3.3796</v>
+        <v>3.2819</v>
       </c>
       <c r="P7">
-        <v>3.6518</v>
+        <v>3.6055</v>
       </c>
       <c r="Q7">
-        <v>3.9234</v>
+        <v>3.9285</v>
       </c>
       <c r="R7">
-        <v>3.3032</v>
+        <v>3.3584</v>
       </c>
       <c r="S7">
-        <v>2.6825</v>
+        <v>2.7886</v>
       </c>
       <c r="T7">
-        <v>3.8523</v>
+        <v>4.0095</v>
       </c>
       <c r="U7">
-        <v>3.5563</v>
+        <v>3.7645</v>
       </c>
       <c r="V7">
-        <v>3.7443</v>
+        <v>3.975</v>
       </c>
       <c r="W7">
-        <v>3.9323</v>
+        <v>4.1825</v>
       </c>
       <c r="X7">
-        <v>4.1203</v>
+        <v>4.3878</v>
       </c>
       <c r="Y7">
-        <v>4.3154</v>
+        <v>4.5611</v>
       </c>
       <c r="Z7">
-        <v>4.5041</v>
+        <v>4.732</v>
       </c>
       <c r="AA7">
-        <v>4.6864</v>
+        <v>4.9006</v>
       </c>
       <c r="AB7">
-        <v>4.8619</v>
+        <v>5.066</v>
       </c>
       <c r="AC7">
-        <v>5.031</v>
+        <v>5.2286</v>
       </c>
       <c r="AD7">
-        <v>5.2862</v>
+        <v>5.4285</v>
       </c>
       <c r="AE7">
-        <v>5.5411</v>
+        <v>5.6278</v>
       </c>
       <c r="AF7">
-        <v>5.7957</v>
+        <v>5.8275</v>
       </c>
       <c r="AG7">
-        <v>6.0505</v>
+        <v>6.0272</v>
       </c>
       <c r="AH7">
-        <v>6.3056</v>
+        <v>6.2266</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -11051,55 +11051,55 @@
         <v>5.0559</v>
       </c>
       <c r="R17">
-        <v>4.2073</v>
+        <v>4.2404</v>
       </c>
       <c r="S17">
-        <v>3.3585</v>
+        <v>3.4119</v>
       </c>
       <c r="T17">
-        <v>4.8961</v>
+        <v>5.0137</v>
       </c>
       <c r="U17">
-        <v>4.48</v>
+        <v>4.6246</v>
       </c>
       <c r="V17">
-        <v>4.7091</v>
+        <v>4.8611</v>
       </c>
       <c r="W17">
-        <v>4.9381</v>
+        <v>5.0975</v>
       </c>
       <c r="X17">
-        <v>5.1671</v>
+        <v>5.334</v>
       </c>
       <c r="Y17">
-        <v>5.3962</v>
+        <v>5.5704</v>
       </c>
       <c r="Z17">
-        <v>5.6252</v>
+        <v>5.8068</v>
       </c>
       <c r="AA17">
-        <v>5.8543</v>
+        <v>6.0433</v>
       </c>
       <c r="AB17">
-        <v>6.0834</v>
+        <v>6.2798</v>
       </c>
       <c r="AC17">
-        <v>6.3124</v>
+        <v>6.5162</v>
       </c>
       <c r="AD17">
-        <v>6.5415</v>
+        <v>6.7527</v>
       </c>
       <c r="AE17">
-        <v>6.7706</v>
+        <v>6.9892</v>
       </c>
       <c r="AF17">
-        <v>6.9996</v>
+        <v>7.2256</v>
       </c>
       <c r="AG17">
-        <v>7.2287</v>
+        <v>7.4621</v>
       </c>
       <c r="AH17">
-        <v>7.4578</v>
+        <v>7.6985</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -12744,13 +12744,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC1ED7FA-F96F-4622-8C08-19BFC1652999}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF70CCF9-B41A-479B-B583-873C9821600C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D1F4D77-74C7-4FD7-8019-96271865E4F1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20F8FCAE-EF7B-4036-BE25-642F04634515}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{714D07AC-7226-438A-A2AC-A7AE5FA255B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6F74A62-AA34-4619-9BFD-5F9710A465FA}"/>
 </file>